--- a/S7G2_Titan/Titan_v1p5_ListByValues.xlsx
+++ b/S7G2_Titan/Titan_v1p5_ListByValues.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C7DB0B-8968-4C50-A819-0775126773B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB03AA2C-EEBC-479C-A95F-556CCE576B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
   <si>
     <t>Qty</t>
   </si>
@@ -439,9 +439,6 @@
   </si>
   <si>
     <t>AP2151WG-7 (Using AP2822, same footprint but obsolete part)</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -931,13 +928,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1293,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1337,7 +1333,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>132</v>
       </c>
       <c r="D2" s="2">
@@ -1391,10 +1387,10 @@
         <f t="shared" ref="A4:A20" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="2">
         <v>9</v>
       </c>
       <c r="E4" s="1">
@@ -1418,10 +1414,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="2">
         <v>6</v>
       </c>
       <c r="E5" s="1">
@@ -1556,7 +1552,7 @@
       <c r="C10" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>10</v>
       </c>
       <c r="E10" s="1">
@@ -1583,7 +1579,7 @@
       <c r="C11" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>11</v>
       </c>
       <c r="E11" s="1">
@@ -1607,13 +1603,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>132</v>
-      </c>
       <c r="C12" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>12</v>
       </c>
       <c r="E12" s="1">
@@ -1640,7 +1633,7 @@
       <c r="C13" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>13</v>
       </c>
       <c r="E13" s="1">
@@ -1667,7 +1660,7 @@
       <c r="C14" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>14</v>
       </c>
       <c r="E14" s="1">
@@ -1694,7 +1687,9 @@
       <c r="C15" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="2">
+        <v>20</v>
+      </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
@@ -1746,7 +1741,9 @@
       <c r="C17" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="2">
+        <v>21</v>
+      </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
@@ -1771,7 +1768,7 @@
       <c r="C18" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>15</v>
       </c>
       <c r="E18" s="1">
@@ -1825,7 +1822,9 @@
       <c r="C20" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="2">
+        <v>22</v>
+      </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
@@ -1846,6 +1845,9 @@
       <c r="C21" t="s">
         <v>132</v>
       </c>
+      <c r="D21" s="2">
+        <v>24</v>
+      </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
@@ -1866,6 +1868,9 @@
       <c r="C22" t="s">
         <v>132</v>
       </c>
+      <c r="D22" s="2">
+        <v>23</v>
+      </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
@@ -1883,8 +1888,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>132</v>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="2">
+        <v>25</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1902,323 +1910,329 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>107</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" t="s">
         <v>135</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="2">
+        <v>28</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="2">
+        <v>29</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" t="s">
         <v>70</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>132</v>
       </c>
+      <c r="D30" s="2">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
       <c r="F30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>119</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I32" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>115</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="s">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>122</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>126</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="s">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>691322310004</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="E39" s="1">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E40" s="1">
         <v>2</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>56</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="E40" s="1">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H41" t="s">
         <v>33</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="s">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>111</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I42" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="s">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <v>61304021021</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="E43" s="1">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E44" s="1">
         <v>6</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H44" t="s">
         <v>101</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I44" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:I40">
-    <sortCondition ref="G2:G40"/>
-    <sortCondition descending="1" ref="E2:E40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:I41">
+    <sortCondition ref="G2:G41"/>
+    <sortCondition descending="1" ref="E2:E41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/S7G2_Titan/Titan_v1p5_ListByValues.xlsx
+++ b/S7G2_Titan/Titan_v1p5_ListByValues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB03AA2C-EEBC-479C-A95F-556CCE576B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73712D48-FA36-4240-B22A-F06B32DFE435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-345" yWindow="1148" windowWidth="12975" windowHeight="14992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Titan_v1p5_ListByValues" sheetId="1" r:id="rId1"/>
@@ -1291,15 +1291,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="11.06640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.265625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.06640625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.3984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1947,6 +1948,9 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>132</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>

--- a/S7G2_Titan/Titan_v1p5_ListByValues.xlsx
+++ b/S7G2_Titan/Titan_v1p5_ListByValues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73712D48-FA36-4240-B22A-F06B32DFE435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA0157A-933D-423E-A427-07994013EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-345" yWindow="1148" windowWidth="12975" windowHeight="14992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8" yWindow="600" windowWidth="12697" windowHeight="8985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Titan_v1p5_ListByValues" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="140">
   <si>
     <t>Qty</t>
   </si>
@@ -159,9 +159,6 @@
     <t>C5, C6, C16, C23</t>
   </si>
   <si>
-    <t>10UF_TANT</t>
-  </si>
-  <si>
     <t>TPST106K016H0800</t>
   </si>
   <si>
@@ -439,6 +436,21 @@
   </si>
   <si>
     <t>AP2151WG-7 (Using AP2822, same footprint but obsolete part)</t>
+  </si>
+  <si>
+    <t>100UF_TANT</t>
+  </si>
+  <si>
+    <t>NeoDen 4</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Offset</t>
   </si>
 </sst>
 </file>
@@ -1289,735 +1301,694 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.06640625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="2.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.73046875" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="1">
+        <v>342.17</v>
+      </c>
+      <c r="G2" s="1">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="1">
+        <v>54</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>190.13</v>
+      </c>
+      <c r="O3">
+        <v>228.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="1">
+        <f>F2-F3</f>
+        <v>288.17</v>
+      </c>
+      <c r="G4" s="1">
+        <f>G2-G3</f>
+        <v>57.5</v>
+      </c>
+      <c r="N4">
+        <v>166.11</v>
+      </c>
+      <c r="O4">
+        <v>204.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N5">
+        <f>(N3+N4)/2</f>
+        <v>178.12</v>
+      </c>
+      <c r="O5">
+        <f>(O3+O4)/2</f>
+        <v>216.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
         <v>130</v>
       </c>
-      <c r="C1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H7" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="2">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1">
+        <v>402</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1">
         <v>402</v>
       </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <f>A2+1</f>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <f t="shared" ref="A10:A26" si="0">A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="G10" s="1">
         <v>402</v>
       </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <f t="shared" ref="A4:A20" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="H10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="1">
-        <v>402</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="1">
         <v>402</v>
       </c>
-      <c r="H5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G12" s="1">
         <v>402</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="1">
         <v>402</v>
       </c>
-      <c r="H7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
         <v>402</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="1">
         <v>402</v>
       </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="2">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="1">
-        <v>402</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="2">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="1">
-        <v>402</v>
-      </c>
-      <c r="H11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="2">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="1">
-        <v>402</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="2">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="1">
-        <v>402</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="2">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="1">
-        <v>402</v>
-      </c>
-      <c r="H14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="2">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1">
-        <v>402</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G16" s="1">
         <v>402</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1">
         <v>402</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G18" s="1">
         <v>402</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G19" s="1">
         <v>402</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G20" s="1">
         <v>402</v>
       </c>
       <c r="H20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="1">
+        <v>402</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="2">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="1">
+        <v>402</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="2">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="1">
+        <v>402</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="2">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1">
+        <v>402</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="2">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="1">
+        <v>402</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="2">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="1">
+        <v>402</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" t="s">
         <v>89</v>
-      </c>
-      <c r="I20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="2">
-        <v>24</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="1">
-        <v>603</v>
-      </c>
-      <c r="H21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="2">
-        <v>23</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="1">
-        <v>805</v>
-      </c>
-      <c r="H22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="2">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1008</v>
-      </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27">
-        <v>30</v>
+        <v>131</v>
+      </c>
+      <c r="D27" s="2">
+        <v>23</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="G27" s="1">
+        <v>805</v>
       </c>
       <c r="H27" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
+      </c>
+      <c r="G28" s="1">
+        <v>603</v>
       </c>
       <c r="H28" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1008</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>132</v>
-      </c>
       <c r="D30" s="2">
         <v>26</v>
       </c>
@@ -2025,218 +1996,336 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="I30" t="s">
         <v>80</v>
-      </c>
-      <c r="H30" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="D31" s="2">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>134</v>
+        <v>63</v>
+      </c>
+      <c r="H31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="D32" s="2">
+        <v>29</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="I32" t="s">
-        <v>120</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="2">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="2">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" t="s">
-        <v>117</v>
-      </c>
+      <c r="H34" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="2">
+        <v>32</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I37" t="s">
-        <v>124</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H38" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I38" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39">
-        <v>691322310004</v>
+        <v>115</v>
+      </c>
+      <c r="H39" t="s">
+        <v>114</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.45">
       <c r="E40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
       <c r="E41" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="H41" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="H42" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="I42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H43">
-        <v>61304021021</v>
-      </c>
-      <c r="I43" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.45">
       <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44">
+        <v>691322310004</v>
+      </c>
+      <c r="I44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" t="s">
+        <v>110</v>
+      </c>
+      <c r="I47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48">
+        <v>61304021021</v>
+      </c>
+      <c r="I48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.45">
+      <c r="E49" s="1">
         <v>6</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="I49" t="s">
         <v>101</v>
       </c>
-      <c r="I44" t="s">
-        <v>102</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:I41">
-    <sortCondition ref="G2:G41"/>
-    <sortCondition descending="1" ref="E2:E41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D8:I35">
+    <sortCondition ref="D8:D35"/>
+    <sortCondition descending="1" ref="E8:E35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/S7G2_Titan/Titan_v1p5_ListByValues.xlsx
+++ b/S7G2_Titan/Titan_v1p5_ListByValues.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA0157A-933D-423E-A427-07994013EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF829F4-556B-4927-B12C-90211D97D999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8" yWindow="600" windowWidth="12697" windowHeight="8985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8" yWindow="600" windowWidth="9645" windowHeight="14707" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Titan_v1p5_ListByValues" sheetId="1" r:id="rId1"/>
+    <sheet name="Pick Lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="171">
   <si>
     <t>Qty</t>
   </si>
@@ -451,6 +452,99 @@
   </si>
   <si>
     <t>Offset</t>
+  </si>
+  <si>
+    <t>Pick Angle</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>AFID1</t>
+  </si>
+  <si>
+    <t>AFID2</t>
+  </si>
+  <si>
+    <t>AFID3</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>100uF_Tant</t>
+  </si>
+  <si>
+    <t>12pF</t>
+  </si>
+  <si>
+    <t>USB-B-Micro</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>24MHz</t>
+  </si>
+  <si>
+    <t>32.768KHz</t>
+  </si>
+  <si>
+    <t>Board Angle</t>
   </si>
 </sst>
 </file>
@@ -1303,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H7" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2329,4 +2423,490 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735B0FF4-710E-463D-B9F4-8FC4B0631C50}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.9296875" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>270</v>
+      </c>
+      <c r="E5">
+        <f>C5-D5</f>
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6">
+        <v>-90</v>
+      </c>
+      <c r="D6">
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E14" si="0">C6-D6</f>
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7">
+        <v>-90</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8">
+        <v>-90</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>270</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>270</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>180</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>270</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>270</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>90</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17">
+        <v>90</v>
+      </c>
+      <c r="D17">
+        <v>270</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E29" si="1">C17-D17</f>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>-90</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>-90</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>-90</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>270</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>270</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>90</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26">
+        <v>90</v>
+      </c>
+      <c r="D26">
+        <v>270</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>90</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>-90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>